--- a/biology/Histoire de la zoologie et de la botanique/Blasius_Merrem/Blasius_Merrem.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Blasius_Merrem/Blasius_Merrem.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Blasius Merrem est un zoologiste allemand, né le 4 février 1761 à Brême et mort le 23 février 1824 à Marbourg.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de marchand, il se destine tout d'abord à la prêtrise et étudie l'arabe, le grec et le latin. Il entre, en 1778, à l'université de Göttingen où, sous l'influence de Johann Friedrich Blumenbach, il découvre la zoologie et particulièrement l'ornithologie.
 Il envisage une vaste publication sur la classification des oiseaux mais seuls des fragments paraissent. Car, afin de gagner sa vie, Merrem est obligé de devenir juriste. En 1785, il devient professeur à Duisbourg mais il doit compléter son maigre salaire en donnant des cours particuliers de mathématique et de physique, ce qui lui laisse peu de temps pour la zoologie.
@@ -547,7 +561,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>De animalibus Scythicis apud Plinium (1781)
 Vermischte Abhandlungen aus der Thiergeschichte (1781)
@@ -585,7 +601,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Kraig Adler (1989). Contributions to the History of Herpetology, Society for the study of amphibians and reptiles.
 Sur les autres projets Wikimedia :
